--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2432.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2432.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.02389625801441</v>
+        <v>0.7447250485420227</v>
       </c>
       <c r="B1">
-        <v>2.080074173759284</v>
+        <v>2.8744957447052</v>
       </c>
       <c r="C1">
-        <v>8.949935898241389</v>
+        <v>3.113898515701294</v>
       </c>
       <c r="D1">
-        <v>2.46077225449841</v>
+        <v>3.719011068344116</v>
       </c>
       <c r="E1">
-        <v>0.9917781176606223</v>
+        <v>1.301419138908386</v>
       </c>
     </row>
   </sheetData>
